--- a/Toy-example/Data/Abnormalities_Features-V4.xlsx
+++ b/Toy-example/Data/Abnormalities_Features-V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golzardm\Documents\paper-TDA-embankment-monitoring\Toy-example\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{748273F1-60ED-4768-B4A7-13212D83BA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DDC462-1750-44AF-82F7-DE930BC4F55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{F2A9B525-589D-4D02-9202-6C3488D882EF}"/>
   </bookViews>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>PE (H0)</t>
-  </si>
-  <si>
-    <t>PE (H1)</t>
-  </si>
-  <si>
     <t>NoP (H0)</t>
   </si>
   <si>
@@ -90,6 +84,12 @@
   </si>
   <si>
     <t>Persistence Image  (H1)</t>
+  </si>
+  <si>
+    <t>Persistence entropy (H0)</t>
+  </si>
+  <si>
+    <t>Persistence entropy (H1)</t>
   </si>
 </sst>
 </file>
@@ -617,14 +617,13 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
@@ -643,7 +642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -663,55 +662,55 @@
     </row>
     <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">

--- a/Toy-example/Data/Abnormalities_Features-V4.xlsx
+++ b/Toy-example/Data/Abnormalities_Features-V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golzardm\Documents\paper-TDA-embankment-monitoring\Toy-example\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DDC462-1750-44AF-82F7-DE930BC4F55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00799588-6873-41B7-A61A-58E424D0C5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{F2A9B525-589D-4D02-9202-6C3488D882EF}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Toy-example/Data/Abnormalities_Features-V4.xlsx
+++ b/Toy-example/Data/Abnormalities_Features-V4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golzardm\Documents\paper-TDA-embankment-monitoring\Toy-example\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00799588-6873-41B7-A61A-58E424D0C5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89FE04F-80FD-4C61-B5C8-FBC4949F7509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{F2A9B525-589D-4D02-9202-6C3488D882EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2A9B525-589D-4D02-9202-6C3488D882EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -38,58 +38,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>NoP (H0)</t>
-  </si>
-  <si>
-    <t>NoP (H1)</t>
-  </si>
-  <si>
     <t>Features</t>
   </si>
   <si>
     <t>Index</t>
   </si>
   <si>
-    <t>Persistence Image  (H0)</t>
-  </si>
-  <si>
-    <t>Landscape  (H1)</t>
-  </si>
-  <si>
-    <t>Landscape  (H0)</t>
-  </si>
-  <si>
-    <t>Wasserstein  (H1)</t>
-  </si>
-  <si>
-    <t>Wasserstein  (H0)</t>
-  </si>
-  <si>
-    <t>Bottleneck  (H1)</t>
-  </si>
-  <si>
-    <t>Bottleneck  (H0)</t>
-  </si>
-  <si>
-    <t>Betti  (H0)</t>
-  </si>
-  <si>
-    <t>Betti  (H1)</t>
-  </si>
-  <si>
-    <t>Heat  (H0)</t>
-  </si>
-  <si>
-    <t>Heat  (H1)</t>
-  </si>
-  <si>
-    <t>Persistence Image  (H1)</t>
-  </si>
-  <si>
-    <t>Persistence entropy (H0)</t>
-  </si>
-  <si>
-    <t>Persistence entropy (H1)</t>
+    <t>persistence entropy (H0)</t>
+  </si>
+  <si>
+    <t>persistence entropy (H1)</t>
+  </si>
+  <si>
+    <t>bottleneck  (H0)</t>
+  </si>
+  <si>
+    <t>number of points (H0)</t>
+  </si>
+  <si>
+    <t>number of points(H1)</t>
+  </si>
+  <si>
+    <t>bottleneck  (H1)</t>
+  </si>
+  <si>
+    <t>wasserstein  (H0)</t>
+  </si>
+  <si>
+    <t>wasserstein  (H1)</t>
+  </si>
+  <si>
+    <t>landscape  (H0)</t>
+  </si>
+  <si>
+    <t>landscape  (H1)</t>
+  </si>
+  <si>
+    <t>persistence Image  (H0)</t>
+  </si>
+  <si>
+    <t>persistence Image  (H1)</t>
+  </si>
+  <si>
+    <t>betti  (H0)</t>
+  </si>
+  <si>
+    <t>betti  (H1)</t>
+  </si>
+  <si>
+    <t>heat  (H0)</t>
+  </si>
+  <si>
+    <t>heat  (H1)</t>
   </si>
 </sst>
 </file>
@@ -617,15 +617,16 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="3" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
@@ -642,7 +643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -662,55 +663,55 @@
     </row>
     <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">

--- a/Toy-example/Data/Abnormalities_Features-V4.xlsx
+++ b/Toy-example/Data/Abnormalities_Features-V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golzardm\Documents\paper-TDA-embankment-monitoring\Toy-example\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89FE04F-80FD-4C61-B5C8-FBC4949F7509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49467557-BF09-42CA-978E-D8869A356013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2A9B525-589D-4D02-9202-6C3488D882EF}"/>
   </bookViews>
@@ -74,22 +74,22 @@
     <t>landscape  (H1)</t>
   </si>
   <si>
-    <t>persistence Image  (H0)</t>
-  </si>
-  <si>
-    <t>persistence Image  (H1)</t>
-  </si>
-  <si>
-    <t>betti  (H0)</t>
-  </si>
-  <si>
-    <t>betti  (H1)</t>
-  </si>
-  <si>
     <t>heat  (H0)</t>
   </si>
   <si>
     <t>heat  (H1)</t>
+  </si>
+  <si>
+    <t>persistence image  (H0)</t>
+  </si>
+  <si>
+    <t>persistence image  (H1)</t>
+  </si>
+  <si>
+    <t>Betti  (H0)</t>
+  </si>
+  <si>
+    <t>Betti  (H1)</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +631,7 @@
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" customWidth="1"/>
     <col min="14" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -696,22 +696,22 @@
         <v>11</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">

--- a/Toy-example/Data/Abnormalities_Features-V4.xlsx
+++ b/Toy-example/Data/Abnormalities_Features-V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golzardm\Documents\paper-TDA-embankment-monitoring\Toy-example\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49467557-BF09-42CA-978E-D8869A356013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B7C928-A4B5-40A8-8777-BE6F020DBED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2A9B525-589D-4D02-9202-6C3488D882EF}"/>
   </bookViews>
@@ -295,6 +295,928 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Table!$J$3:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3.0088230267693499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1524212258670099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3367145781446199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.99449222330193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1074213057261399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8079213037211401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0386114944345399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4802563375731601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7801921540026799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5002555443683798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1056465998007501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5860013318956501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4263966489764899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1690340409713502</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0778273480803899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6590136734740599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3310-4DD2-81E4-64B64F93FF83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="92867215"/>
+        <c:axId val="222216703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92867215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222216703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="222216703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92867215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560917</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>232834</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C762CF80-360F-DFEA-F4CF-E88D32AD50A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,7 +1539,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +1824,7 @@
         <v>4.1383495849405296</v>
       </c>
       <c r="J6" s="7">
-        <v>2.5044922233019302</v>
+        <v>2.99449222330193</v>
       </c>
       <c r="K6" s="7">
         <v>3.1543986170517702</v>
@@ -1008,7 +1930,7 @@
         <v>1.1288957561719299</v>
       </c>
       <c r="J8" s="7">
-        <v>3.4979363516692898</v>
+        <v>2.8079213037211401</v>
       </c>
       <c r="K8" s="7">
         <v>0.88022507499048197</v>
@@ -1568,5 +2490,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Toy-example/Data/Abnormalities_Features-V4.xlsx
+++ b/Toy-example/Data/Abnormalities_Features-V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golzardm\Documents\paper-TDA-embankment-monitoring\Toy-example\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D548A0-6471-4977-BF25-75B53280BF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E976303-BEFB-4D7E-B743-5758B46090C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2A9B525-589D-4D02-9202-6C3488D882EF}"/>
   </bookViews>
@@ -294,15 +294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,6 +308,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,7 +655,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,27 +680,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -753,7 +753,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>-50</v>
       </c>
       <c r="B3" s="6">
@@ -806,7 +806,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>-40</v>
       </c>
       <c r="B4" s="6">
@@ -859,7 +859,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>-30</v>
       </c>
       <c r="B5" s="6">
@@ -912,7 +912,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>-20</v>
       </c>
       <c r="B6" s="6">
@@ -965,7 +965,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>-10</v>
       </c>
       <c r="B7" s="6">
@@ -1018,7 +1018,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>-7</v>
       </c>
       <c r="B8" s="6">
@@ -1071,7 +1071,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>-4</v>
       </c>
       <c r="B9" s="6">
@@ -1124,7 +1124,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="10">
         <v>-2</v>
       </c>
       <c r="B10" s="6">
@@ -1177,7 +1177,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="10">
         <v>0</v>
       </c>
       <c r="B11" s="6">
@@ -1230,7 +1230,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
       <c r="B12" s="6">
@@ -1283,7 +1283,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>4</v>
       </c>
       <c r="B13" s="6">
@@ -1336,7 +1336,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>7</v>
       </c>
       <c r="B14" s="6">
@@ -1389,7 +1389,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <v>10</v>
       </c>
       <c r="B15" s="6">
@@ -1442,7 +1442,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>20</v>
       </c>
       <c r="B16" s="6">
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="9">
         <v>30</v>
       </c>
       <c r="B17" s="6">
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <v>40</v>
       </c>
       <c r="B18" s="6">
@@ -1601,7 +1601,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="11">
         <v>50</v>
       </c>
       <c r="B19" s="6">

--- a/Toy-example/Data/Abnormalities_Features-V4.xlsx
+++ b/Toy-example/Data/Abnormalities_Features-V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golzardm\Documents\paper-TDA-embankment-monitoring\Toy-example\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E976303-BEFB-4D7E-B743-5758B46090C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FECE947-204E-46A6-9167-CACA2C251BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2A9B525-589D-4D02-9202-6C3488D882EF}"/>
   </bookViews>
@@ -655,7 +655,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="C3" sqref="C3:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,52 +1181,52 @@
         <v>0</v>
       </c>
       <c r="B11" s="6">
-        <v>8.7915173695789299</v>
-      </c>
-      <c r="C11" s="5">
-        <v>6.20363293516818</v>
-      </c>
-      <c r="D11" s="5">
-        <v>499</v>
-      </c>
-      <c r="E11" s="5">
-        <v>120</v>
-      </c>
-      <c r="F11" s="5">
-        <v>8.39137411117553</v>
-      </c>
-      <c r="G11" s="5">
-        <v>8.7868034839630091</v>
-      </c>
-      <c r="H11" s="5">
-        <v>77.427176190657804</v>
-      </c>
-      <c r="I11" s="5">
-        <v>24.4752422543671</v>
-      </c>
-      <c r="J11" s="5">
-        <v>19.8467956235929</v>
-      </c>
-      <c r="K11" s="5">
-        <v>22.374483221867902</v>
-      </c>
-      <c r="L11" s="5">
-        <v>285.92132083475701</v>
-      </c>
-      <c r="M11" s="5">
-        <v>36.452167168833</v>
-      </c>
-      <c r="N11" s="5">
-        <v>1079.29590770955</v>
-      </c>
-      <c r="O11" s="5">
-        <v>98.8307218471179</v>
-      </c>
-      <c r="P11" s="5">
-        <v>374.33664504478497</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>52.813583694949997</v>
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1579,7 +1579,7 @@
         <v>3.0778273480803899</v>
       </c>
       <c r="K18" s="5">
-        <v>2.3506965470003802</v>
+        <v>3.05069654700038</v>
       </c>
       <c r="L18" s="5">
         <v>336.28413391067602</v>

--- a/Toy-example/Data/Abnormalities_Features-V4.xlsx
+++ b/Toy-example/Data/Abnormalities_Features-V4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golzardm\Documents\paper-TDA-embankment-monitoring\Toy-example\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FECE947-204E-46A6-9167-CACA2C251BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B75EE-A584-4677-9674-86DEBEA7464A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2A9B525-589D-4D02-9202-6C3488D882EF}"/>
   </bookViews>
@@ -655,7 +655,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C19"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1579,7 @@
         <v>3.0778273480803899</v>
       </c>
       <c r="K18" s="5">
-        <v>3.05069654700038</v>
+        <v>2.8506965470003802</v>
       </c>
       <c r="L18" s="5">
         <v>336.28413391067602</v>

--- a/Toy-example/Data/Abnormalities_Features-V4.xlsx
+++ b/Toy-example/Data/Abnormalities_Features-V4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golzardm\Documents\paper-TDA-embankment-monitoring\Toy-example\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B75EE-A584-4677-9674-86DEBEA7464A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA87198-D153-4CC6-BF03-B09178DD94DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2A9B525-589D-4D02-9202-6C3488D882EF}"/>
   </bookViews>
@@ -655,7 +655,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +670,7 @@
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.28515625" customWidth="1"/>
